--- a/doc/系统字典信息说明.xlsx
+++ b/doc/系统字典信息说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>字典中文名[字典名称]</t>
   </si>
@@ -38,9 +38,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>后端模块间接口调用：</t>
-  </si>
-  <si>
     <t>案件状态代码</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>获取字典词条信息</t>
-  </si>
-  <si>
-    <t>接口名</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>未有具体的词条信息</t>
   </si>
   <si>
-    <t>List&lt;DictionarylistEntity&gt; queryCtxxByZdmc(String zdmc)；</t>
-  </si>
-  <si>
     <t>通过字典名称查询词条信息</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>D_SYS_WFFSDM</t>
   </si>
   <si>
-    <t>List&lt;DictionarylistEntity&gt; queryCtxxByZddm(String zddm);</t>
-  </si>
-  <si>
     <t>通过字典代码查询词条信息</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>D_SYS_XBDM</t>
   </si>
   <si>
-    <t>List&lt;DictionarylistEntity&gt; queryCtxxByZdid(Integer zdid);</t>
-  </si>
-  <si>
     <t>通过字典主键查询词条信息</t>
   </si>
   <si>
@@ -213,6 +195,15 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>女转男</t>
+  </si>
+  <si>
+    <t>男转女</t>
+  </si>
+  <si>
+    <t>未知名性别</t>
   </si>
   <si>
     <t>系统用户</t>
@@ -265,10 +256,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -314,23 +305,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,66 +323,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +351,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -435,16 +381,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,6 +403,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -467,187 +458,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,11 +667,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +717,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,11 +749,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,45 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,12 +924,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -951,12 +936,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,31 +945,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1333,350 +1306,472 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="8"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="G2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="21" t="s">
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="12" t="s">
+      <c r="C9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="12" t="s">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="7:13">
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="7:13">
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="7:13">
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="7:13">
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="7:13">
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="7:13">
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="7:13">
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="7:13">
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="7:13">
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="7:13">
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="7:13">
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="案件状态代码!A1" display="案件状态代码"/>
+    <hyperlink ref="A3" location="案件处理方式!A1" display="案件处理方式"/>
+    <hyperlink ref="A4" location="外访方式!A1" display="外访方式"/>
+    <hyperlink ref="A5" location="性别!A1" display="性别"/>
+    <hyperlink ref="A6" location="用户类型!A1" display="用户类型"/>
+    <hyperlink ref="A7" location="案件区域!A1" display="案件区域"/>
+    <hyperlink ref="A8" location="案件类型!A1" display="案件类型"/>
+    <hyperlink ref="A9" location="任务方式!A1" display="任务方式"/>
+    <hyperlink ref="A10" location="任务状态!A1" display="任务状态"/>
+    <hyperlink ref="A11" location="人员角色!A1" display="人员角色"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1699,89 +1794,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:3">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:3">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="15.6" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="B9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1795,7 +1890,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1807,66 +1902,66 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1880,7 +1975,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1891,91 +1986,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:3">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="6" ht="15.6" spans="1:3">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:3">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:3">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="17">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="17">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:3">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:3">
-      <c r="A8" s="17">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:3">
-      <c r="A9" s="17">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1986,65 +2081,65 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="29.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="24.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="13" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12">
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="12">
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2058,7 +2153,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -2069,65 +2164,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:3">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="C6" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:3">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:3">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:3">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2139,13 +2234,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="29.2222222222222" customWidth="1"/>
@@ -2153,42 +2248,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2213,42 +2335,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2273,51 +2395,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="12"/>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2342,53 +2464,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>31</v>
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2413,53 +2535,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="B4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
